--- a/andes_gym/envs/wecc_full_ieesgod_toggle_testcoi.xlsx
+++ b/andes_gym/envs/wecc_full_ieesgod_toggle_testcoi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/583978c37d2ceb9e/Documents/GradSchool/Research/ANDES_Research/Cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{8B9323D5-724A-45FC-9270-E3D4E40B8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12DD6F3-8DC3-487C-B83A-68A875D1A617}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{8B9323D5-724A-45FC-9270-E3D4E40B8768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A6CCD6-57CC-45A2-8149-79871581E597}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="839">
   <si>
     <t>idx</t>
   </si>
@@ -2565,15 +2565,6 @@
   </si>
   <si>
     <t>SynGen</t>
-  </si>
-  <si>
-    <t>COI_2</t>
-  </si>
-  <si>
-    <t>COI_3</t>
-  </si>
-  <si>
-    <t>COI_4</t>
   </si>
 </sst>
 </file>
@@ -15256,7 +15247,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15290,46 +15281,18 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>839</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>840</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>841</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="2"/>
@@ -39424,9 +39387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39541,7 +39504,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1600</v>
@@ -39628,7 +39591,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2100</v>
@@ -39715,7 +39678,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>4300</v>
@@ -39802,7 +39765,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>4100</v>
@@ -39889,7 +39852,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>3400</v>
@@ -39975,7 +39938,7 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>5300</v>
@@ -40061,7 +40024,7 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>2000</v>
@@ -40320,7 +40283,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>3300</v>
@@ -40407,7 +40370,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>400</v>
@@ -40493,7 +40456,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>650</v>
@@ -40579,7 +40542,7 @@
         <v>13</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>3600</v>
@@ -40666,7 +40629,7 @@
         <v>14</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>220</v>
@@ -41096,7 +41059,7 @@
         <v>19</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1500</v>
@@ -41183,7 +41146,7 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>2100</v>
@@ -41270,7 +41233,7 @@
         <v>21</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1200</v>
@@ -41357,7 +41320,7 @@
         <v>22</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>6900</v>
@@ -41444,7 +41407,7 @@
         <v>23</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>2000</v>
@@ -41530,7 +41493,7 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>6400</v>
@@ -41616,7 +41579,7 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>3400</v>
@@ -41702,7 +41665,7 @@
         <v>26</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>3400</v>
@@ -41788,7 +41751,7 @@
         <v>27</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>4400</v>
@@ -41874,7 +41837,7 @@
         <v>28</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>3300</v>
@@ -41961,7 +41924,7 @@
         <v>29</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>900</v>
@@ -42037,8 +42000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC3B05A-92A7-4DB3-AFC8-27178AD30AE9}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42124,7 +42087,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0.3</v>
@@ -42178,7 +42141,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>0.3</v>
@@ -42232,7 +42195,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0.3</v>
@@ -42286,7 +42249,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0.3</v>
@@ -42340,7 +42303,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0.3</v>
@@ -42394,7 +42357,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>0.3</v>
@@ -42448,7 +42411,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>0.3</v>
@@ -42502,7 +42465,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0.3</v>
@@ -42556,7 +42519,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>0.3</v>
@@ -42610,7 +42573,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <v>0.3</v>
@@ -42664,7 +42627,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0.3</v>
@@ -42718,7 +42681,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0.3</v>
@@ -42772,7 +42735,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0.3</v>
@@ -42826,7 +42789,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <v>0.3</v>
@@ -42880,7 +42843,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <v>0.3</v>
@@ -42934,7 +42897,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>0.3</v>
@@ -42988,7 +42951,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I18">
         <v>0.3</v>
@@ -43042,7 +43005,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I19">
         <v>0.3</v>
@@ -43096,7 +43059,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I20">
         <v>0.3</v>
@@ -43150,7 +43113,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0.3</v>
@@ -43204,7 +43167,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0.3</v>
@@ -43258,7 +43221,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I23">
         <v>0.3</v>
@@ -43312,7 +43275,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>0.3</v>
@@ -43366,7 +43329,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I25">
         <v>0.3</v>
@@ -43420,7 +43383,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>0.3</v>
@@ -43474,7 +43437,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <v>0.3</v>
@@ -43528,7 +43491,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I28">
         <v>0.3</v>
@@ -43582,7 +43545,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0.3</v>
@@ -43636,7 +43599,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I30">
         <v>0.3</v>
